--- a/plots/countries/plot data/Turkey.xlsx
+++ b/plots/countries/plot data/Turkey.xlsx
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>5.39524583924454</v>
+        <v>5.39511983924454</v>
       </c>
     </row>
     <row r="5">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>39.7005206357458</v>
+        <v>39.7312282432678</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>22.6911769288435</v>
+        <v>23.0920771544268</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-66.4296894072427</v>
+        <v>-66.4289713822427</v>
       </c>
     </row>
     <row r="10">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>5.12187043512834</v>
+        <v>5.12174443512834</v>
       </c>
     </row>
     <row r="14">
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>41.2207899644584</v>
+        <v>41.3144436853061</v>
       </c>
     </row>
     <row r="16">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>24.4287782226699</v>
+        <v>24.8901800582577</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-67.423513429393</v>
+        <v>-67.4111821250024</v>
       </c>
     </row>
     <row r="19">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>5.06086176077131</v>
+        <v>5.06073576077131</v>
       </c>
     </row>
     <row r="23">
@@ -945,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>45.9448619373716</v>
+        <v>45.9654526875028</v>
       </c>
     </row>
     <row r="25">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>24.1344292682267</v>
+        <v>24.6436061063349</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-67.4695582468739</v>
+        <v>-67.4474369990037</v>
       </c>
     </row>
     <row r="28">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>4.93480102430428</v>
+        <v>4.93467502430428</v>
       </c>
     </row>
     <row r="32">
@@ -1125,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>45.3478808607555</v>
+        <v>45.3678898694108</v>
       </c>
     </row>
     <row r="34">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>24.6418737244723</v>
+        <v>25.1427287932938</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-66.6711262934127</v>
+        <v>-66.6602544308681</v>
       </c>
     </row>
     <row r="37">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>4.77446493131366</v>
+        <v>4.77433893131366</v>
       </c>
     </row>
     <row r="41">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>23.9881097643735</v>
+        <v>24.5060282719071</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-68.0334470753987</v>
+        <v>-68.0217820706993</v>
       </c>
     </row>
     <row r="46">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>4.79141303647224</v>
+        <v>4.79128703647224</v>
       </c>
     </row>
     <row r="50">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>25.3711663136785</v>
+        <v>25.9136315683515</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-67.9447930539408</v>
+        <v>-67.9321148006388</v>
       </c>
     </row>
     <row r="55">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>4.82383734326568</v>
+        <v>4.82371134326568</v>
       </c>
     </row>
     <row r="59">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>26.0064027708124</v>
+        <v>26.5691748826244</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-67.2832879873369</v>
+        <v>-67.283326786813</v>
       </c>
     </row>
     <row r="64">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>5.19460277507992</v>
+        <v>5.19447677507992</v>
       </c>
     </row>
     <row r="68">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>56.0212349448541</v>
+        <v>56.021235891338</v>
       </c>
     </row>
     <row r="69">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>26.8513740107831</v>
+        <v>27.4311424723996</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-70.4539239497715</v>
+        <v>-70.4668948470562</v>
       </c>
     </row>
     <row r="73">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>5.66783261658845</v>
+        <v>5.66770661658845</v>
       </c>
     </row>
     <row r="77">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>55.470099203408</v>
+        <v>55.4625535150057</v>
       </c>
     </row>
     <row r="78">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>27.1633619987921</v>
+        <v>27.7503358821714</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-70.590637601414</v>
+        <v>-70.5970287976743</v>
       </c>
     </row>
     <row r="82">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>6.86759484932623</v>
+        <v>6.86746884932623</v>
       </c>
     </row>
     <row r="86">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>25.6414551476244</v>
+        <v>26.2014647656872</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-71.2194232850568</v>
+        <v>-71.231788625426</v>
       </c>
     </row>
     <row r="91">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>7.37568005278161</v>
+        <v>7.37555405278161</v>
       </c>
     </row>
     <row r="95">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>26.0541178108876</v>
+        <v>26.6369256183104</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-68.1556637376168</v>
+        <v>-68.1786971824752</v>
       </c>
     </row>
     <row r="100">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>6.83464180122454</v>
+        <v>6.83451580122454</v>
       </c>
     </row>
     <row r="104">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>25.7050252202599</v>
+        <v>26.284117351392</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-70.727873914422</v>
+        <v>-70.7343381388744</v>
       </c>
     </row>
     <row r="109">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>6.46090234550246</v>
+        <v>6.46077634550246</v>
       </c>
     </row>
     <row r="113">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>26.6596083029978</v>
+        <v>27.2550658143967</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-69.3545114723642</v>
+        <v>-69.3287478572161</v>
       </c>
     </row>
     <row r="118">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>6.16909110313019</v>
+        <v>6.16896510313019</v>
       </c>
     </row>
     <row r="122">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>76.9270252019756</v>
+        <v>76.927025201976</v>
       </c>
     </row>
     <row r="124">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>28.0014117377544</v>
+        <v>28.6163869013827</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-71.2863456138027</v>
+        <v>-71.2805015846076</v>
       </c>
     </row>
     <row r="127">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>6.09036102431154</v>
+        <v>6.09023502431154</v>
       </c>
     </row>
     <row r="131">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>78.0386811800349</v>
+        <v>78.0386811800313</v>
       </c>
     </row>
     <row r="133">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>30.5588582896337</v>
+        <v>31.2193335796837</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-69.9372649494811</v>
+        <v>-69.9036623161932</v>
       </c>
     </row>
     <row r="136">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>6.82945904416202</v>
+        <v>6.82933304416202</v>
       </c>
     </row>
     <row r="140">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>93.006064124793</v>
+        <v>92.992368932966</v>
       </c>
     </row>
     <row r="142">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>33.959623731576</v>
+        <v>34.6934051383257</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-72.2224354232104</v>
+        <v>-72.2449850251842</v>
       </c>
     </row>
     <row r="145">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>7.22791703692341</v>
+        <v>7.22779103692341</v>
       </c>
     </row>
     <row r="149">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>98.8409783728042</v>
+        <v>98.8409783728044</v>
       </c>
     </row>
     <row r="151">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>36.4144231915908</v>
+        <v>37.2143599222782</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-71.6013485183006</v>
+        <v>-71.6054283767332</v>
       </c>
     </row>
     <row r="154">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>9.49836482916062</v>
+        <v>9.49823882916062</v>
       </c>
     </row>
     <row r="158">
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="F159" t="n">
-        <v>116.127945717182</v>
+        <v>116.136556775696</v>
       </c>
     </row>
     <row r="160">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>39.3036671210817</v>
+        <v>40.1780306672862</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-71.9417286781257</v>
+        <v>-71.9845459696495</v>
       </c>
     </row>
     <row r="163">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>10.0606321807189</v>
+        <v>10.0605061807189</v>
       </c>
     </row>
     <row r="167">
@@ -3825,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="n">
-        <v>120.913721914831</v>
+        <v>120.913721913051</v>
       </c>
     </row>
     <row r="169">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>41.3147274428751</v>
+        <v>42.2685562788865</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-67.8526675026102</v>
+        <v>-67.8945350520308</v>
       </c>
     </row>
     <row r="172">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>71.2160422906586</v>
+        <v>71.223887578213</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>9.74064598420144</v>
+        <v>9.74051998420144</v>
       </c>
     </row>
     <row r="176">
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
       <c r="F177" t="n">
-        <v>120.621051492144</v>
+        <v>120.631989534868</v>
       </c>
     </row>
     <row r="178">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>42.7191417109137</v>
+        <v>43.7570238967196</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-70.7601492993804</v>
+        <v>-70.8356547265328</v>
       </c>
     </row>
     <row r="181">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>68.0195459212126</v>
+        <v>68.0233986657236</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>9.85998148618309</v>
+        <v>9.85985548618309</v>
       </c>
     </row>
     <row r="185">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>115.38693087104</v>
+        <v>115.387758248426</v>
       </c>
     </row>
     <row r="187">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>48.5748091388928</v>
+        <v>49.725439150678</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-72.0580343078655</v>
+        <v>-72.1214351352769</v>
       </c>
     </row>
     <row r="190">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>74.8195021416954</v>
+        <v>74.8665730866599</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>10.8479523871372</v>
+        <v>10.8478263871372</v>
       </c>
     </row>
     <row r="194">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>127.039706680537</v>
+        <v>127.037936165225</v>
       </c>
     </row>
     <row r="196">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>53.4430014325487</v>
+        <v>54.650326043595</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-75.5592753971529</v>
+        <v>-75.6595711828253</v>
       </c>
     </row>
     <row r="199">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>61.926682862669</v>
+        <v>61.9600771404455</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>11.2173621338486</v>
+        <v>11.2172361338486</v>
       </c>
     </row>
     <row r="203">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>128.300008756998</v>
+        <v>128.264792990672</v>
       </c>
     </row>
     <row r="205">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>55.6790968691214</v>
+        <v>56.8832556015188</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-73.4215701573238</v>
+        <v>-73.5049800290287</v>
       </c>
     </row>
     <row r="208">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>56.6654954136783</v>
+        <v>56.780907894041</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>10.1810322200579</v>
+        <v>10.1809062200579</v>
       </c>
     </row>
     <row r="212">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>123.322119492705</v>
+        <v>123.344958863383</v>
       </c>
     </row>
     <row r="214">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>58.7363324391226</v>
+        <v>60.0380411836707</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-76.4057741891314</v>
+        <v>-76.5200816874351</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>17.2844002317819</v>
+        <v>17.2845622709185</v>
       </c>
     </row>
     <row r="218">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>56.349856458327</v>
+        <v>56.5961549419303</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>12.1963160541602</v>
+        <v>12.1961900541602</v>
       </c>
     </row>
     <row r="221">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>133.896995875774</v>
+        <v>133.947390932841</v>
       </c>
     </row>
     <row r="223">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>59.4340551447682</v>
+        <v>60.7582309162834</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-76.8521327889164</v>
+        <v>-76.9586524929053</v>
       </c>
     </row>
     <row r="226">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>65.3102093215741</v>
+        <v>65.5672171489362</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>6.40067019273112</v>
+        <v>6.40054419273112</v>
       </c>
     </row>
     <row r="230">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>136.983780345342</v>
+        <v>136.997164599497</v>
       </c>
     </row>
     <row r="232">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>59.1599077601889</v>
+        <v>60.2726685615761</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-72.8569651223992</v>
+        <v>-72.9620018285966</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>17.7220211222855</v>
+        <v>17.7221875662786</v>
       </c>
     </row>
     <row r="236">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>65.2471189415169</v>
+        <v>65.4455741394739</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>10.2196048208219</v>
+        <v>10.2194788208219</v>
       </c>
     </row>
     <row r="239">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>144.591594584049</v>
+        <v>144.558097294277</v>
       </c>
     </row>
     <row r="241">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>63.2027648718227</v>
+        <v>63.9427853585877</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-73.7364362379066</v>
+        <v>-73.7896944777847</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>17.3248419274076</v>
+        <v>17.3250106270277</v>
       </c>
     </row>
     <row r="245">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>73.4688097349245</v>
+        <v>73.695894275903</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>7.85265125503684</v>
+        <v>7.85252525503684</v>
       </c>
     </row>
     <row r="248">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>155.663233031267</v>
+        <v>155.603531799581</v>
       </c>
     </row>
     <row r="250">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>66.0769227538613</v>
+        <v>67.1817196460424</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-76.034083450556</v>
+        <v>-76.1245268249168</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>16.8728117398414</v>
+        <v>16.8729826418897</v>
       </c>
     </row>
     <row r="254">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>62.9160004313972</v>
+        <v>63.3208444456627</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>9.06822934457695</v>
+        <v>9.06810334457695</v>
       </c>
     </row>
     <row r="257">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>158.626221418232</v>
+        <v>158.48223578753</v>
       </c>
     </row>
     <row r="259">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>67.1483196092586</v>
+        <v>68.560744129511</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-70.4018499786779</v>
+        <v>-70.4884905787599</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>17.2974934043487</v>
+        <v>17.2812402631647</v>
       </c>
     </row>
     <row r="263">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>69.3309953965961</v>
+        <v>69.7024271782324</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>11.5374910997252</v>
+        <v>11.5373650997252</v>
       </c>
     </row>
     <row r="266">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>149.585371516023</v>
+        <v>149.567001165034</v>
       </c>
     </row>
     <row r="268">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>58.3549989025589</v>
+        <v>60.2700579044334</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-64.3017924619112</v>
+        <v>-64.4198266932161</v>
       </c>
     </row>
     <row r="271">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>75.3069843926977</v>
+        <v>75.5268300673626</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>10.1769206992649</v>
+        <v>10.1767946992649</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>61.5933256321646</v>
+        <v>61.6541884648498</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>141.858809355736</v>
+        <v>141.833269024907</v>
       </c>
     </row>
     <row r="277">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>67.2408780456489</v>
+        <v>68.9369294210214</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-57.6412415149372</v>
+        <v>-57.7461414708118</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>16.9763296092498</v>
+        <v>16.9836152143765</v>
       </c>
     </row>
     <row r="281">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>75.4153485009646</v>
+        <v>75.7060992001104</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>12.081872042337</v>
+        <v>12.081746042337</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>68.5373109262965</v>
+        <v>68.5566037846601</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>159.351192848359</v>
+        <v>159.338687869524</v>
       </c>
     </row>
     <row r="286">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>74.7152060894955</v>
+        <v>76.5427215186111</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-47.8746373585442</v>
+        <v>-48.0141797728952</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>15.4238632050589</v>
+        <v>15.4317418718395</v>
       </c>
     </row>
     <row r="290">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>75.141569542223</v>
+        <v>75.3584027670479</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>12.1782304030436</v>
+        <v>12.1781044030436</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>65.4631158651299</v>
+        <v>65.4436338592136</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>155.936862208544</v>
+        <v>155.893479909042</v>
       </c>
     </row>
     <row r="295">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>69.9082138326886</v>
+        <v>71.9349253716799</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-56.0955096458523</v>
+        <v>-56.2537753245178</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>16.2648693195601</v>
+        <v>16.0148038570881</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>71.7512832763455</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>98.0498242128612</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>7.67806143697471</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>82.9448212352314</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>154.163516884576</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>99.3340741690357</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>70.9281332793494</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-69.235462321117</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>14.0673752860949</v>
       </c>
     </row>
   </sheetData>
